--- a/FCEV/FCEV/Analysis/EnergySummary.xlsx
+++ b/FCEV/FCEV/Analysis/EnergySummary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>System Name</t>
   </si>
@@ -121,6 +121,105 @@
   </si>
   <si>
     <t xml:space="preserve">      Rotational Inertia</t>
+  </si>
+  <si>
+    <t>System Name</t>
+  </si>
+  <si>
+    <t>FCEvReferenceApplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Passenger Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Drivetrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Differential and Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Front Axle Compliance 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Front Axle Compliance 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Open Differential</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Driveshaft Compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Rotational Inertia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Vehicle Body 3 DOF Longitudinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Wheels and Brakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Longitudinal Wheel - Front 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Longitudinal Wheel - Front 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Longitudinal Wheel - Rear 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Longitudinal Wheel - Rear 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Electric Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Battery Power Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Boost Converter Power Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Cooling System Power Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Heat Exchanger Power Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Pipe Converter Power Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Pipe Motor Power Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Tank Power Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      DC-DC Converter  Power Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Fuel Cell Power Accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Motor Power Accounting</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Energy Loss (MJ)</t>
+  </si>
+  <si>
+    <t>Energy Input (MJ)</t>
+  </si>
+  <si>
+    <t>Energy Output (MJ)</t>
+  </si>
+  <si>
+    <t>Energy Stored (MJ)</t>
   </si>
   <si>
     <t>System Name</t>
@@ -591,27 +690,27 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25">
       <c r="A1" s="0" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.25">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B2" s="0">
         <v>0.27336078395602559</v>
@@ -631,7 +730,7 @@
     </row>
     <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B3" s="0">
         <v>0.27336078395602559</v>
@@ -651,7 +750,7 @@
     </row>
     <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="0" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B4" s="0">
         <v>0.57334037143715688</v>
@@ -671,7 +770,7 @@
     </row>
     <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B5" s="0">
         <v>0.98482537811474202</v>
@@ -691,7 +790,7 @@
     </row>
     <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B6" s="0">
         <v>0.99998282883651213</v>
@@ -711,7 +810,7 @@
     </row>
     <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="0" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B7" s="0">
         <v>0.99998282883651213</v>
@@ -731,7 +830,7 @@
     </row>
     <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="0" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B8" s="0">
         <v>0.98484198663548228</v>
@@ -751,7 +850,7 @@
     </row>
     <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="0" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B9" s="0">
         <v>0.99999946163714448</v>
@@ -771,7 +870,7 @@
     </row>
     <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="0" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="B10" s="0">
         <v>0.98586052512179201</v>
@@ -791,7 +890,7 @@
     </row>
     <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="B11" s="0">
         <v>0.8354056134783453</v>
@@ -811,7 +910,7 @@
     </row>
     <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="0" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B12" s="0">
         <v>0.83583750105144106</v>
@@ -831,7 +930,7 @@
     </row>
     <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="0" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B13" s="0">
         <v>0.72682599818554772</v>
@@ -851,7 +950,7 @@
     </row>
     <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B14" s="0">
         <v>0.82069272212050925</v>
@@ -871,7 +970,7 @@
     </row>
     <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="0" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B15" s="0">
         <v>0.82069272212050925</v>
@@ -891,7 +990,7 @@
     </row>
     <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B16" s="0">
         <v>0.030295094834010345</v>
@@ -911,7 +1010,7 @@
     </row>
     <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B17" s="0">
         <v>0.030295094834010345</v>
@@ -931,7 +1030,7 @@
     </row>
     <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="0" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="B18" s="0">
         <v>0.71553912920922924</v>
@@ -951,7 +1050,7 @@
     </row>
     <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="0" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -971,7 +1070,7 @@
     </row>
     <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="0" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0">
         <v>0.99803277803496049</v>
@@ -991,7 +1090,7 @@
     </row>
     <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="0" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0">
         <v>-0</v>
@@ -1011,7 +1110,7 @@
     </row>
     <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B22" s="0">
         <v>0.89627349698089331</v>
@@ -1031,7 +1130,7 @@
     </row>
     <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="B23" s="0">
         <v>0.95877406779372953</v>
@@ -1051,7 +1150,7 @@
     </row>
     <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" s="0" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B24" s="0">
         <v>0.9993061678880395</v>
@@ -1071,7 +1170,7 @@
     </row>
     <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" s="0" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B25" s="0">
         <v>0.99743459019609693</v>
@@ -1091,7 +1190,7 @@
     </row>
     <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" s="0" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0">
         <v>0.73588721986937866</v>
@@ -1111,7 +1210,7 @@
     </row>
     <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" s="0" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B27" s="0">
         <v>0.99999795610956554</v>
@@ -1131,7 +1230,7 @@
     </row>
     <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" s="0" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B28" s="0">
         <v>0.8898609547423677</v>
